--- a/frontend/public/route_optimization_template.xlsx
+++ b/frontend/public/route_optimization_template.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cities" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Route_Cities" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Route_TruckTypes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Instructions" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Warehouse" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cities" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Route_Cities" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Route_TruckTypes" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,6 +429,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>warehouse</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.385</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78.4867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -559,7 +609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -698,7 +748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -847,13 +897,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,7 +921,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This is a template for Route Optimization</t>
+          <t>Route Optimization Template</t>
         </is>
       </c>
     </row>
@@ -881,124 +931,173 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sheet 1: Cities</t>
+          <t>⚠️ NEW: Warehouse Sheet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>- city: Name of the city (required)</t>
+          <t>Define your starting warehouse/depot location</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- demand: Demand quantity for the city (required)</t>
+          <t>- warehouse: Name (e.g., Hyderabad)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>- lat: Latitude (optional - will auto-geocode if missing)</t>
+          <t>- lat: Latitude</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>- long: Longitude (optional - will auto-geocode if missing)</t>
+          <t>- long: Longitude</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>- All routes start from warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sheet 2: Route_Cities</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>- route: Route ID (e.g., R1, R2, R3)</t>
+          <t>Sheet 1: Cities</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>- city: City name covered by this route</t>
+          <t>- city: City name</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>- demand: Demand at city</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sheet 3: Route_TruckTypes</t>
+          <t>- lat: Latitude (optional)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>- route: Route ID matching Route_Cities</t>
+          <t>- long: Longitude (optional)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>- truck_type: Type of truck (e.g., T1, T2)</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>- capacity: Maximum capacity of truck on this route</t>
+          <t>Sheet 2: Route_Cities</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>- cost: Cost per truck for this route</t>
+          <t>- route: Route ID (R1, R2, etc)</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>- city: Which city this route covers</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EXAMPLE: The template includes sample data</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Replace it with your actual route data</t>
+          <t>Sheet 3: Route_TruckTypes</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>- route: Route ID</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Note: You can leave lat/long empty - cities will be auto-geocoded</t>
+          <t>- truck_type: Truck type (T1, T2, etc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>- capacity: Truck capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>- cost: Cost per truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IMPORTANT:</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>- All routes start from warehouse in Hyderabad</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>- Routes visit cities and return to warehouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>- Cost includes full round trip</t>
         </is>
       </c>
     </row>
